--- a/Tests/Register - Test.xlsx
+++ b/Tests/Register - Test.xlsx
@@ -19,39 +19,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="54">
-  <si>
-    <t>S1T1</t>
-  </si>
-  <si>
-    <t>S1T2</t>
-  </si>
-  <si>
-    <t>S1T3</t>
-  </si>
-  <si>
-    <t>S1T4</t>
-  </si>
-  <si>
-    <t>S1T5</t>
-  </si>
-  <si>
-    <t>S1T6</t>
-  </si>
-  <si>
-    <t>S1T7</t>
-  </si>
-  <si>
-    <t>S1T8</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="72">
   <si>
     <t>Case ID</t>
   </si>
   <si>
     <t>Steps</t>
-  </si>
-  <si>
-    <t>S1T0</t>
   </si>
   <si>
     <t>Objective</t>
@@ -71,158 +44,242 @@
     <t>1: Access localhost or valid address</t>
   </si>
   <si>
-    <t>Login page displays</t>
-  </si>
-  <si>
     <t>Passed</t>
   </si>
   <si>
     <t>Test status</t>
   </si>
   <si>
-    <t>A completed name and empty password input isnt submitted</t>
-  </si>
-  <si>
-    <t>A completed password empty name input isnt submitted</t>
-  </si>
-  <si>
-    <t>Both empty input fields arent submitted</t>
-  </si>
-  <si>
-    <t>Invalid name but valid pass isnt accepted by server</t>
-  </si>
-  <si>
-    <t>Invalid pass but valid name isnt accepted</t>
-  </si>
-  <si>
-    <t>Valid pass and name are accepted</t>
-  </si>
-  <si>
     <t>Expected results</t>
   </si>
   <si>
     <t>"</t>
   </si>
   <si>
-    <t>1: Username input field is left empty
-2: Password input field filled with random input</t>
-  </si>
-  <si>
-    <t>1: Password input field is left empty
-2: Username input field filled with random input</t>
-  </si>
-  <si>
-    <t>1: Username input field is left empty
-2: Password input field is left empty</t>
-  </si>
-  <si>
-    <t>Javascript Enabled:: 
-1: Error message returned to user under password input field
-2: Input fields not refreshed
-Javascript Disabled: 
-1: Error message returned under submit button
-2: Page is refreshed</t>
-  </si>
-  <si>
-    <t>Javascript Enabled: 
-1: Error message returned to user under username input field
-2: Input fields not refreshed
-Javascript Disabled: 
-1: Error message returned under submit button
-2: Page is refreshed</t>
-  </si>
-  <si>
-    <t>1: Username input field is filled with random input
-2: Password input field is filled with valid input</t>
-  </si>
-  <si>
-    <t>1: Password input field is filled with valid input
-2: Name input field is filled with valid input</t>
-  </si>
-  <si>
-    <t>1: Password input field is filled with random input
-2: Name input field is filled with valid input</t>
-  </si>
-  <si>
-    <t>Javascript Enabled:
-1: Error message returned to user under password input field
-2: Input fields not refreshed
-Javascript Disabled: 
-1: Error message returned under submit button
-2: Page is refreshed</t>
-  </si>
-  <si>
-    <t>1a: User is redirected to search page if regular user
-1b: User is redirected to admin page if recognized superuser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Javascript Enabled: 
-1: Error message returned to user under password &amp; username input fields
-2: Input fields not refreshed
-Javascript Disabled: 
-1: Error message returned under submit button
-2: Page is refreshed
-</t>
-  </si>
-  <si>
     <t>Input values</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>Username: ""
-Password:"abcdefg123456"</t>
-  </si>
-  <si>
-    <t>1: Compatible browser used
-2: Javascript capable of being enabled and disabled
-3: Controlled number of users created with none containing the random inputs</t>
-  </si>
-  <si>
-    <t>Username: "abcdefg123456"
-Password:""</t>
-  </si>
-  <si>
-    <t>Username: ""
-Password:""</t>
-  </si>
-  <si>
-    <t>Username: "abcdefg123456"
-Password:"password"</t>
-  </si>
-  <si>
-    <t>Username: "admin"
-Password:"abcdefg123456"</t>
-  </si>
-  <si>
-    <t>Username: "admin"/"userC"
-Password:"password"/"c"</t>
-  </si>
-  <si>
-    <t>SQL Injection attacks are blocked</t>
-  </si>
-  <si>
-    <t>Cross site scripting attacks are blocked</t>
-  </si>
-  <si>
-    <t>1: Password input field is filled SQL injection
-2: Name input field is filled SQL injection</t>
-  </si>
-  <si>
-    <t>1: Password input field is filled with script
-2: Name input field is filled with script</t>
-  </si>
-  <si>
-    <t>Username: "DELETE FROM auth_user WHERE username='admin'"
-Password:"DELETE FROM auth_user WHERE username='admin'"</t>
-  </si>
-  <si>
-    <t>Username: "&lt;script&gt;alert('SCRIPT ATTACK');&lt;/script&gt;"
-Password: "&lt;script&gt;alert('SCRIPT ATTACK');&lt;/script&gt;"</t>
-  </si>
-  <si>
-    <t>Error messages displayed as normal</t>
+    <t>S3T0</t>
+  </si>
+  <si>
+    <t>SignUp page displays</t>
+  </si>
+  <si>
+    <t>S3T1</t>
+  </si>
+  <si>
+    <t>S3T2</t>
+  </si>
+  <si>
+    <t>S3T3</t>
+  </si>
+  <si>
+    <t>S3T4</t>
+  </si>
+  <si>
+    <t>S3T5</t>
+  </si>
+  <si>
+    <t>S3T6</t>
+  </si>
+  <si>
+    <t>S3T7</t>
+  </si>
+  <si>
+    <t>S3T8</t>
+  </si>
+  <si>
+    <t>S3T9</t>
+  </si>
+  <si>
+    <t>S3T10</t>
+  </si>
+  <si>
+    <t>S3T11</t>
+  </si>
+  <si>
+    <t>S3T12</t>
+  </si>
+  <si>
+    <t>S3T13</t>
+  </si>
+  <si>
+    <t>S3T14</t>
+  </si>
+  <si>
+    <t>S3T15</t>
+  </si>
+  <si>
+    <t>S3T16</t>
+  </si>
+  <si>
+    <t>S3T17</t>
+  </si>
+  <si>
+    <t>Empty inputs for all</t>
+  </si>
+  <si>
+    <t>All input fields have nothing in them</t>
+  </si>
+  <si>
+    <t>Javascript enabled: 
+1: Error messages display under compulsory fields.
+Javascript disabled: 
+1: Error message displays in error field.</t>
+  </si>
+  <si>
+    <t>1: Submit form with no inputs</t>
+  </si>
+  <si>
+    <t>1: Modern browser used
+2: Javascript enabled/disabled
+3: Page loads successfully</t>
+  </si>
+  <si>
+    <t>Singular inputs for all fields</t>
+  </si>
+  <si>
+    <t>1: Input one field with data while the rest are empty
+2: Submit form</t>
+  </si>
+  <si>
+    <t>Each input field spends one test while it is filled with a value</t>
+  </si>
+  <si>
+    <t>Javascript enabled: 
+1: Error messages display under empty compulsory fields.
+2: No reaction for empty non-compulsory fields
+Javascript disabled: 
+1: Error message displays in error field while any of the compulsory fields are empty.</t>
+  </si>
+  <si>
+    <t>Already used username considered invalid input</t>
+  </si>
+  <si>
+    <t>username: 'userC'/'admin'</t>
+  </si>
+  <si>
+    <t>1: Input username field with already used username.
+2: Input other compulsory fields with valid arbitary data.</t>
+  </si>
+  <si>
+    <t>1: Related error message in error field
+2: Form resets</t>
+  </si>
+  <si>
+    <t>Different passwords in each field are invalid</t>
+  </si>
+  <si>
+    <t>All usertypes save as expected</t>
+  </si>
+  <si>
+    <t>1: Error message displayed in field for different passwords detected.
+2: Form resets</t>
+  </si>
+  <si>
+    <t>1: Observing the DB shows that the usertypes are as expected</t>
+  </si>
+  <si>
+    <t>All valid data for compulsory fields</t>
+  </si>
+  <si>
+    <t>All fields (compulsory/non-compulsory) save as expected</t>
+  </si>
+  <si>
+    <t>Javascript errors on invalid field input type</t>
+  </si>
+  <si>
+    <t>1: Input string into password field
+2: Input different string into confirm password field
+3: Fill other compulsory inputs with valid arbitary data</t>
+  </si>
+  <si>
+    <t>Username: 'userX'
+Password: 'X'
+Confirm Password: 'B'
+Usertype: 'Student'</t>
+  </si>
+  <si>
+    <t>Username: 'userZ'
+Password: 'Z'
+Confirm Password: 'Z'
+Usertype: 'Student'
+First name: 'User'
+Last name: 'Zee'
+Phone Number: 0123456789
+Email: 'userZ@zmail.com'
+Address: 123 Z street</t>
+  </si>
+  <si>
+    <t>Email: 'uu'/'123'
+First name: 123
+Last name: 123
+Phone number: 'Phone'</t>
+  </si>
+  <si>
+    <t>1: Modern browser used
+2: Javascript enabled
+3: Page loads successfully</t>
+  </si>
+  <si>
+    <t>Displays error message under relevant input field</t>
+  </si>
+  <si>
+    <t>All save correctly and displays results in database correctly.
+User is sent to login page with relevant message</t>
+  </si>
+  <si>
+    <t>Usertype: 'Student'/'Businessman'/'Tourist'</t>
+  </si>
+  <si>
+    <t>1: Fill compulsory fields with valid arbitary data
+2: Test all userype inputs</t>
+  </si>
+  <si>
+    <t>1: Fill compulsory fields with valid arbitary data</t>
+  </si>
+  <si>
+    <t>Username: 'userZ'
+Password: 'Z'
+Confirm Password: 'Z'
+Usertype: 'Student'</t>
+  </si>
+  <si>
+    <t>1: Fill ALL fields with valid arbitary data</t>
+  </si>
+  <si>
+    <t>1: Fill compulsory input fields with valid arbitary data
+2: Fill non-compulsory input fields with invalid data</t>
+  </si>
+  <si>
+    <t>SQL Inject attacks fail</t>
+  </si>
+  <si>
+    <t>Scripting attacks fail</t>
+  </si>
+  <si>
+    <t>1: Fill all relevant fields with SQL injection</t>
+  </si>
+  <si>
+    <t>1: Fill all relevant fields with javascript attack</t>
+  </si>
+  <si>
+    <t>All fields: DELETE FROM auth_user WHERE username = admin;
+User type: 'Student'</t>
+  </si>
+  <si>
+    <t>All fields: &lt;script&gt;alert('WARNING');&lt;/script&gt;
+User type: 'Student'</t>
+  </si>
+  <si>
+    <t>Javascript enabled:
+1: Errors returned under compulsory fields
+2: Fixing these errors submits as normal
+Javascript disabled: 
+1: Submits as normal assuming the inputs abide by db entry type</t>
   </si>
 </sst>
 </file>
@@ -264,10 +321,10 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -551,269 +608,301 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="38" customWidth="1"/>
-    <col min="3" max="4" width="38.85546875" customWidth="1"/>
-    <col min="5" max="5" width="48.85546875" customWidth="1"/>
-    <col min="6" max="6" width="66.85546875" customWidth="1"/>
-    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="38" style="1" customWidth="1"/>
+    <col min="3" max="4" width="38.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="48.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="66.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="G2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="B3" s="2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="120" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="B7" s="2" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>45</v>
+        <v>60</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="B12" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -822,7 +911,9 @@
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
+      <c r="A14" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -831,7 +922,9 @@
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
+      <c r="A15" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -840,7 +933,9 @@
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
+      <c r="A16" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -849,7 +944,9 @@
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
+      <c r="A17" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -858,7 +955,9 @@
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
+      <c r="A18" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -867,7 +966,9 @@
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
+      <c r="A19" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -876,7 +977,6 @@
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -885,7 +985,6 @@
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -894,7 +993,6 @@
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -903,7 +1001,6 @@
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -912,7 +1009,6 @@
       <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -921,7 +1017,6 @@
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -930,7 +1025,6 @@
       <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
